--- a/Data/Excel/Proto/GachaProb.xlsx
+++ b/Data/Excel/Proto/GachaProb.xlsx
@@ -8,22 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C877AC71-4E9F-4D5B-8825-595FE331B6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4FC5E7-D18B-4D6A-AE9E-F2B757DCC9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B69D90B2-837F-4F1C-A343-AB9C9731F0BF}"/>
+    <workbookView xWindow="3360" yWindow="4185" windowWidth="21570" windowHeight="11295" xr2:uid="{B69D90B2-837F-4F1C-A343-AB9C9731F0BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ticket" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
-  <si>
-    <t>int</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
   <si>
     <t>Num</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -41,19 +49,27 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>CookieGradeWeightArr</t>
+    <t>list:int</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>CookiePickupWeightArr</t>
+    <t>GradeWeightList</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>StarExpGradeWeightArr</t>
+    <t>PickupWeightList</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>StarExpPickupWeightArr</t>
+    <t>CookieWeight</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StarExpWeight</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DetailWeightSum</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -988,79 +1004,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEB70FA-D65F-432A-8185-F0281658762C}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="2" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="10" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>600000</v>
       </c>
       <c r="C4">
+        <v>200000</v>
+      </c>
+      <c r="D4">
+        <v>100000</v>
+      </c>
+      <c r="E4">
+        <v>80000</v>
+      </c>
+      <c r="F4">
+        <v>10000</v>
+      </c>
+      <c r="G4">
+        <v>10000</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>SUM(B4:J4)</f>
+        <v>1000000</v>
+      </c>
+      <c r="L4">
+        <v>300000</v>
+      </c>
+      <c r="M4">
+        <v>700000</v>
+      </c>
+      <c r="N4">
+        <f>SUM(L4:M4)</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2001</v>
+      </c>
+      <c r="B5">
+        <v>500000</v>
+      </c>
+      <c r="C5">
+        <v>100000</v>
+      </c>
+      <c r="D5">
+        <v>100000</v>
+      </c>
+      <c r="E5">
+        <v>80000</v>
+      </c>
+      <c r="F5">
+        <v>10000</v>
+      </c>
+      <c r="G5">
+        <v>10000</v>
+      </c>
+      <c r="H5">
+        <v>200000</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>SUM(B5:J5)</f>
+        <v>1000000</v>
+      </c>
+      <c r="L5">
+        <v>300000</v>
+      </c>
+      <c r="M5">
+        <v>700000</v>
+      </c>
+      <c r="N5">
+        <f>SUM(L5:M5)</f>
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel/Proto/GachaProb.xlsx
+++ b/Data/Excel/Proto/GachaProb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4FC5E7-D18B-4D6A-AE9E-F2B757DCC9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC3D457-66CF-4CC2-9B3F-AF7B9B02BFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="4185" windowWidth="21570" windowHeight="11295" xr2:uid="{B69D90B2-837F-4F1C-A343-AB9C9731F0BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B69D90B2-837F-4F1C-A343-AB9C9731F0BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ticket" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
   <si>
     <t>Num</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -65,11 +65,19 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>StarExpWeight</t>
+    <t>DetailWeightSum</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>DetailWeightSum</t>
+    <t>SoulStoneWeight</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoulStoneMinCnt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoulStoneMaxCnt</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1004,20 +1012,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEB70FA-D65F-432A-8185-F0281658762C}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="7" width="14.5703125" customWidth="1"/>
     <col min="8" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1055,13 +1068,19 @@
         <v>7</v>
       </c>
       <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
-        <v>9</v>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1104,13 +1123,19 @@
       <c r="N2" t="s">
         <v>1</v>
       </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -1155,8 +1180,14 @@
         <f>SUM(L4:M4)</f>
         <v>1000000</v>
       </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2001</v>
       </c>
@@ -1200,6 +1231,12 @@
       <c r="N5">
         <f>SUM(L5:M5)</f>
         <v>1000000</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel/Proto/GachaProb.xlsx
+++ b/Data/Excel/Proto/GachaProb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC3D457-66CF-4CC2-9B3F-AF7B9B02BFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AE0C01-764D-4FF9-AEA1-7AFE68EE1095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B69D90B2-837F-4F1C-A343-AB9C9731F0BF}"/>
+    <workbookView xWindow="1680" yWindow="3435" windowWidth="22980" windowHeight="11295" xr2:uid="{B69D90B2-837F-4F1C-A343-AB9C9731F0BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ticket" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="9">
   <si>
     <t>Num</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -61,23 +61,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>CookieWeight</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>DetailWeightSum</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SoulStoneWeight</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SoulStoneMinCnt</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SoulStoneMaxCnt</t>
+    <t>DetailWeightList</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1012,25 +1000,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEB70FA-D65F-432A-8185-F0281658762C}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="10" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="8" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" customWidth="1"/>
+    <col min="15" max="17" width="16" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1062,25 +1048,31 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
         <v>3</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
       </c>
       <c r="N1" t="s">
         <v>8</v>
       </c>
       <c r="O1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P1" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1112,30 +1104,36 @@
         <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2" t="s">
         <v>1</v>
       </c>
       <c r="N2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -1167,27 +1165,33 @@
         <v>0</v>
       </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <f>SUM(B4:J4)</f>
         <v>1000000</v>
       </c>
-      <c r="L4">
-        <v>300000</v>
-      </c>
-      <c r="M4">
-        <v>700000</v>
-      </c>
       <c r="N4">
-        <f>SUM(L4:M4)</f>
+        <v>400000</v>
+      </c>
+      <c r="O4">
+        <v>200000</v>
+      </c>
+      <c r="P4">
+        <v>200000</v>
+      </c>
+      <c r="Q4">
+        <v>200000</v>
+      </c>
+      <c r="R4">
+        <f>SUM(N4:Q4)</f>
         <v>1000000</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>3</v>
-      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2001</v>
       </c>
@@ -1219,24 +1223,30 @@
         <v>0</v>
       </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <f>SUM(B5:J5)</f>
         <v>1000000</v>
       </c>
-      <c r="L5">
-        <v>300000</v>
-      </c>
-      <c r="M5">
-        <v>700000</v>
-      </c>
       <c r="N5">
-        <f>SUM(L5:M5)</f>
+        <v>400000</v>
+      </c>
+      <c r="O5">
+        <v>200000</v>
+      </c>
+      <c r="P5">
+        <v>200000</v>
+      </c>
+      <c r="Q5">
+        <v>200000</v>
+      </c>
+      <c r="R5">
+        <f>SUM(N5:Q5)</f>
         <v>1000000</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
